--- a/models/powerstation_coal/sysconfig_pscoal_test_case.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="16845" tabRatio="804"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="16845" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="272">
   <si>
     <t>pwr_house</t>
   </si>
@@ -615,9 +615,6 @@
     <t>component_id</t>
   </si>
   <si>
-    <t>damage_median</t>
-  </si>
-  <si>
     <t>Capacity at the output nodes on the extremity of the component network</t>
   </si>
   <si>
@@ -841,6 +838,12 @@
   </si>
   <si>
     <t>damage_state_def</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2943,51 +2946,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
         <v>264</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2998,21 +3001,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5368,22 +5371,22 @@
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>213</v>
-      </c>
       <c r="C2" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="80">
         <v>0</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="82">
         <v>1</v>
@@ -5391,13 +5394,13 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="80">
         <v>2.5954017126034994E-2</v>
@@ -5406,7 +5409,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="82">
         <v>1</v>
@@ -5414,13 +5417,13 @@
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="80">
         <v>2.5954017126034994E-2</v>
@@ -5429,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="82">
         <v>1</v>
@@ -5440,10 +5443,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="115">
         <v>0.01</v>
@@ -5452,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="82">
         <v>1</v>
@@ -5463,7 +5466,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>45</v>
@@ -5486,7 +5489,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>45</v>
@@ -5509,7 +5512,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>45</v>
@@ -5532,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>46</v>
@@ -5555,7 +5558,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="66" t="s">
         <v>46</v>
@@ -5578,7 +5581,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="66" t="s">
         <v>46</v>
@@ -5601,7 +5604,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>46</v>
@@ -5624,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>47</v>
@@ -5647,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>47</v>
@@ -5667,10 +5670,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>44</v>
@@ -5679,10 +5682,10 @@
         <v>2.3189810486043766E-2</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G15" s="82">
         <v>1</v>
@@ -5693,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>44</v>
@@ -5716,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>44</v>
@@ -5739,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>44</v>
@@ -5762,7 +5765,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>48</v>
@@ -5785,7 +5788,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>48</v>
@@ -5808,7 +5811,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>48</v>
@@ -5831,7 +5834,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>48</v>
@@ -5854,10 +5857,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="80">
         <v>4.9999999999999992E-3</v>
@@ -5866,7 +5869,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="82">
         <v>1</v>
@@ -5877,10 +5880,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="80">
         <v>6.6793425473104144E-3</v>
@@ -5889,7 +5892,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="82">
         <v>1</v>
@@ -5900,10 +5903,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="80">
         <v>6.6793425473104144E-3</v>
@@ -5912,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="82">
         <v>1</v>
@@ -5923,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>51</v>
@@ -5946,7 +5949,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>42</v>
@@ -5969,7 +5972,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>42</v>
@@ -5992,7 +5995,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>51</v>
@@ -6015,7 +6018,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="66" t="s">
         <v>51</v>
@@ -6087,7 +6090,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="80">
         <v>0</v>
@@ -6096,7 +6099,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G33" s="82">
         <v>1</v>
@@ -6110,7 +6113,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="80">
         <v>0</v>
@@ -6119,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G34" s="82">
         <v>1</v>
@@ -6176,24 +6179,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="C1" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="D1" s="86" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="87">
         <v>1</v>
@@ -6204,10 +6207,10 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>10</v>
@@ -6232,7 +6235,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>10</v>
@@ -6484,7 +6487,7 @@
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>11</v>
@@ -6804,21 +6807,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="C1" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="D1" s="68" t="s">
         <v>251</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="69">
         <v>100</v>
@@ -6827,12 +6830,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="69">
         <v>100</v>
@@ -6841,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6891,19 +6894,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="D1" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>255</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,11 +6957,11 @@
   </sheetPr>
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6985,16 +6988,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>203</v>
-      </c>
       <c r="E1" s="98" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="G1" s="98" t="s">
         <v>21</v>
@@ -7003,13 +7006,13 @@
         <v>22</v>
       </c>
       <c r="I1" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="K1" s="96" t="s">
         <v>207</v>
-      </c>
-      <c r="K1" s="96" t="s">
-        <v>208</v>
       </c>
       <c r="L1" s="97" t="s">
         <v>23</v>
@@ -7018,7 +7021,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O1" s="121" t="s">
         <v>192</v>
@@ -7032,7 +7035,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="89">
         <v>1</v>
@@ -7050,13 +7053,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L2" s="119">
         <v>0.2</v>
@@ -7080,7 +7083,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="89">
         <v>1</v>
@@ -7098,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L3" s="119">
         <v>0.5</v>
@@ -7126,7 +7129,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="89">
         <v>1</v>
@@ -7144,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="119">
         <v>1</v>
@@ -7172,7 +7175,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="89">
         <v>1</v>
@@ -7190,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L5" s="119">
         <v>4.3</v>
@@ -7218,7 +7221,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="90">
         <v>1</v>
@@ -7236,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K6" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7">
         <v>3</v>
@@ -7266,7 +7269,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="89">
         <v>1</v>
@@ -7284,13 +7287,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L7" s="9">
         <v>20</v>
@@ -7312,7 +7315,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="89">
         <v>1</v>
@@ -7330,13 +7333,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L8" s="9">
         <v>60</v>
@@ -7358,7 +7361,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="91">
         <v>1</v>
@@ -7376,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J9" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L9" s="13">
         <f>24*30/7</f>
@@ -7405,7 +7408,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="89">
         <v>1</v>
@@ -7423,13 +7426,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K10" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L10" s="119">
         <v>0.2</v>
@@ -7453,7 +7456,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="89">
         <v>1</v>
@@ -7471,13 +7474,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L11" s="119">
         <v>0.5</v>
@@ -7499,7 +7502,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="89">
         <v>1</v>
@@ -7517,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L12" s="119">
         <v>1</v>
@@ -7545,7 +7548,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="89">
         <v>1</v>
@@ -7563,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K13" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L13" s="119">
         <v>4.3</v>
@@ -7591,7 +7594,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="90">
         <v>1</v>
@@ -7609,13 +7612,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
@@ -7639,7 +7642,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="89">
         <v>1</v>
@@ -7657,13 +7660,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L15" s="9">
         <v>3</v>
@@ -7685,7 +7688,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="89">
         <v>1</v>
@@ -7703,13 +7706,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16" s="9">
         <v>15</v>
@@ -7731,7 +7734,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="89">
         <v>1</v>
@@ -7749,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J17" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L17" s="9">
         <v>30</v>
@@ -7777,7 +7780,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="90">
         <v>1</v>
@@ -7795,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7">
         <v>5</v>
@@ -7825,7 +7828,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="89">
         <v>1</v>
@@ -7843,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J19" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K19" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L19" s="9">
         <v>10</v>
@@ -7871,7 +7874,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="89">
         <v>1</v>
@@ -7889,13 +7892,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J20" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K20" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L20" s="9">
         <v>21</v>
@@ -7917,7 +7920,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="89">
         <v>1</v>
@@ -7935,13 +7938,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J21" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L21" s="53">
         <f>10*30/7</f>
@@ -7964,7 +7967,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="90">
         <v>1</v>
@@ -7982,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J22" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -8012,7 +8015,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="89">
         <v>1</v>
@@ -8030,13 +8033,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L23" s="9">
         <v>17</v>
@@ -8060,7 +8063,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="89">
         <v>1</v>
@@ -8078,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K24" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L24" s="9">
         <v>37</v>
@@ -8108,7 +8111,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="89">
         <v>1</v>
@@ -8126,13 +8129,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K25" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L25" s="53">
         <f>18*30/7</f>
@@ -8151,13 +8154,13 @@
     </row>
     <row r="26" spans="1:15" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="90">
         <v>1</v>
@@ -8175,13 +8178,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J26" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
@@ -8199,13 +8202,13 @@
     </row>
     <row r="27" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="89">
         <v>1</v>
@@ -8223,13 +8226,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J27" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K27" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L27" s="9">
         <v>4</v>
@@ -8245,13 +8248,13 @@
     </row>
     <row r="28" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="89">
         <v>1</v>
@@ -8269,13 +8272,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J28" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K28" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="9">
         <v>8</v>
@@ -8291,13 +8294,13 @@
     </row>
     <row r="29" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="89">
         <v>1</v>
@@ -8315,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J29" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K29" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L29" s="9">
         <v>12</v>
@@ -8343,7 +8346,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="90">
         <v>1</v>
@@ -8361,13 +8364,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J30" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K30" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7">
         <v>3</v>
@@ -8389,7 +8392,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="89">
         <v>1</v>
@@ -8407,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J31" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K31" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L31" s="9">
         <v>20</v>
@@ -8435,7 +8438,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="89">
         <v>1</v>
@@ -8453,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J32" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L32" s="9">
         <v>60</v>
@@ -8483,7 +8486,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="89">
         <v>1</v>
@@ -8501,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J33" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K33" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L33" s="53">
         <f>24*30/7</f>
@@ -8530,7 +8533,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="90">
         <v>1</v>
@@ -8548,13 +8551,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J34" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K34" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7">
         <v>5</v>
@@ -8576,7 +8579,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="89">
         <v>1</v>
@@ -8594,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J35" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K35" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L35" s="9">
         <v>17</v>
@@ -8622,7 +8625,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="89">
         <v>1</v>
@@ -8640,13 +8643,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J36" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K36" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" s="9">
         <v>37</v>
@@ -8668,7 +8671,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="91">
         <v>1</v>
@@ -8686,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J37" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K37" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L37" s="53">
         <f>18*30/7</f>
@@ -8715,7 +8718,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="90">
         <v>1</v>
@@ -8733,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="I38" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K38" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L38" s="117">
         <v>5</v>
@@ -8761,7 +8764,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="89">
         <v>1</v>
@@ -8779,13 +8782,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J39" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K39" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L39" s="118">
         <v>17</v>
@@ -8807,7 +8810,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="89">
         <v>1</v>
@@ -8825,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J40" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K40" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L40" s="118">
         <v>37</v>
@@ -8853,7 +8856,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="91">
         <v>1</v>
@@ -8871,13 +8874,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J41" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K41" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L41" s="120">
         <f>18*30/7</f>
@@ -8900,7 +8903,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="90">
         <v>1</v>
@@ -8918,13 +8921,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K42" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L42" s="7">
         <v>5</v>
@@ -8948,7 +8951,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="89">
         <v>1</v>
@@ -8966,13 +8969,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J43" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K43" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L43" s="9">
         <v>17</v>
@@ -8994,7 +8997,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D44" s="89">
         <v>1</v>
@@ -9012,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K44" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L44" s="9">
         <v>37</v>
@@ -9040,7 +9043,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="89">
         <v>1</v>
@@ -9058,13 +9061,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K45" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L45" s="53">
         <f>18*30/7</f>
@@ -9087,7 +9090,7 @@
         <v>59</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="90">
         <v>1</v>
@@ -9105,13 +9108,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J46" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K46" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L46" s="7">
         <v>5</v>
@@ -9133,7 +9136,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="89">
         <v>1</v>
@@ -9151,13 +9154,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K47" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L47" s="9">
         <v>17</v>
@@ -9181,7 +9184,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="89">
         <v>1</v>
@@ -9199,13 +9202,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K48" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L48" s="9">
         <v>37</v>
@@ -9227,7 +9230,7 @@
         <v>62</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="89">
         <v>1</v>
@@ -9245,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="I49" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K49" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L49" s="53">
         <f>18*30/7</f>
@@ -9274,7 +9277,7 @@
         <v>59</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="90">
         <v>1</v>
@@ -9292,13 +9295,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J50" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K50" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="7">
         <v>5</v>
@@ -9322,7 +9325,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="89">
         <v>1</v>
@@ -9340,13 +9343,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J51" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K51" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L51" s="9">
         <v>17</v>
@@ -9368,7 +9371,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="89">
         <v>1</v>
@@ -9386,13 +9389,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J52" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K52" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L52" s="9">
         <v>37</v>
@@ -9414,7 +9417,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="89">
         <v>1</v>
@@ -9432,13 +9435,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J53" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K53" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L53" s="53">
         <f>18*30/7</f>
@@ -9461,7 +9464,7 @@
         <v>59</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="90">
         <v>1</v>
@@ -9479,13 +9482,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J54" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K54" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L54" s="7">
         <v>5</v>
@@ -9509,7 +9512,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="89">
         <v>1</v>
@@ -9527,13 +9530,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J55" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K55" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L55" s="9">
         <v>17</v>
@@ -9555,7 +9558,7 @@
         <v>61</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="89">
         <v>1</v>
@@ -9573,13 +9576,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K56" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L56" s="9">
         <v>37</v>
@@ -9601,7 +9604,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D57" s="89">
         <v>1</v>
@@ -9619,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J57" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K57" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L57" s="53">
         <f>18*30/7</f>
@@ -9648,7 +9651,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="90">
         <v>1</v>
@@ -9666,13 +9669,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J58" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K58" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L58" s="7">
         <v>5</v>
@@ -9696,7 +9699,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="89">
         <v>1</v>
@@ -9714,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="I59" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J59" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K59" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L59" s="9">
         <v>20</v>
@@ -9742,7 +9745,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" s="89">
         <v>1</v>
@@ -9760,13 +9763,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J60" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K60" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L60" s="9">
         <v>50</v>
@@ -9788,7 +9791,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" s="89">
         <v>1</v>
@@ -9806,13 +9809,13 @@
         <v>0</v>
       </c>
       <c r="I61" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J61" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K61" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L61" s="53">
         <f>24*30/7</f>
@@ -9835,7 +9838,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="90">
         <v>1</v>
@@ -9853,13 +9856,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J62" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K62" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L62" s="7">
         <v>5</v>
@@ -9881,7 +9884,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="89">
         <v>1</v>
@@ -9899,13 +9902,13 @@
         <v>0.6</v>
       </c>
       <c r="I63" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J63" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K63" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L63" s="9">
         <v>17</v>
@@ -9929,7 +9932,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="89">
         <v>1</v>
@@ -9947,13 +9950,13 @@
         <v>0.2</v>
       </c>
       <c r="I64" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J64" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K64" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L64" s="9">
         <v>37</v>
@@ -9975,7 +9978,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="89">
         <v>1</v>
@@ -9993,13 +9996,13 @@
         <v>0</v>
       </c>
       <c r="I65" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J65" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K65" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L65" s="13">
         <f>18*30/7</f>
@@ -10016,13 +10019,13 @@
     </row>
     <row r="66" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="90">
         <v>1</v>
@@ -10040,13 +10043,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J66" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K66" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L66" s="119">
         <v>0.2</v>
@@ -10064,13 +10067,13 @@
     </row>
     <row r="67" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="89">
         <v>1</v>
@@ -10088,13 +10091,13 @@
         <v>0</v>
       </c>
       <c r="I67" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J67" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K67" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L67" s="119">
         <v>0.5</v>
@@ -10112,13 +10115,13 @@
     </row>
     <row r="68" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="89">
         <v>1</v>
@@ -10136,13 +10139,13 @@
         <v>0</v>
       </c>
       <c r="I68" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J68" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K68" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L68" s="119">
         <v>1</v>
@@ -10160,13 +10163,13 @@
     </row>
     <row r="69" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="89">
         <v>1</v>
@@ -10184,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I69" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J69" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K69" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L69" s="119">
         <v>4.3</v>
@@ -10208,13 +10211,13 @@
     </row>
     <row r="70" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="90">
         <v>1</v>
@@ -10232,13 +10235,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J70" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K70" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L70" s="7">
         <v>3</v>
@@ -10254,13 +10257,13 @@
     </row>
     <row r="71" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="89">
         <v>1</v>
@@ -10278,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="I71" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J71" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K71" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L71" s="9">
         <v>20</v>
@@ -10300,13 +10303,13 @@
     </row>
     <row r="72" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="89">
         <v>1</v>
@@ -10324,13 +10327,13 @@
         <v>0</v>
       </c>
       <c r="I72" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J72" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K72" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L72" s="9">
         <v>60</v>
@@ -10346,13 +10349,13 @@
     </row>
     <row r="73" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="89">
         <v>1</v>
@@ -10370,13 +10373,13 @@
         <v>0</v>
       </c>
       <c r="I73" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J73" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K73" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L73" s="13">
         <f>24*30/7</f>
@@ -10393,13 +10396,13 @@
     </row>
     <row r="74" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="90">
         <v>1</v>
@@ -10417,13 +10420,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J74" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K74" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L74" s="119">
         <v>0.2</v>
@@ -10439,13 +10442,13 @@
     </row>
     <row r="75" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="89">
         <v>1</v>
@@ -10463,13 +10466,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J75" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K75" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L75" s="119">
         <v>0.5</v>
@@ -10485,13 +10488,13 @@
     </row>
     <row r="76" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D76" s="89">
         <v>1</v>
@@ -10509,13 +10512,13 @@
         <v>0</v>
       </c>
       <c r="I76" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J76" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K76" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L76" s="119">
         <v>1</v>
@@ -10531,13 +10534,13 @@
     </row>
     <row r="77" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="89">
         <v>1</v>
@@ -10555,13 +10558,13 @@
         <v>0</v>
       </c>
       <c r="I77" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J77" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K77" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L77" s="119">
         <v>4.3</v>
@@ -10577,13 +10580,13 @@
     </row>
     <row r="78" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" s="90">
         <v>1</v>
@@ -10601,13 +10604,13 @@
         <v>1</v>
       </c>
       <c r="I78" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J78" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K78" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L78" s="7">
         <v>1</v>
@@ -10625,13 +10628,13 @@
     </row>
     <row r="79" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="89">
         <v>1</v>
@@ -10649,13 +10652,13 @@
         <v>0</v>
       </c>
       <c r="I79" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J79" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K79" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L79" s="9">
         <v>3</v>
@@ -10673,13 +10676,13 @@
     </row>
     <row r="80" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" s="89">
         <v>1</v>
@@ -10697,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="I80" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J80" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K80" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L80" s="9">
         <v>15</v>
@@ -10721,13 +10724,13 @@
     </row>
     <row r="81" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="89">
         <v>1</v>
@@ -10745,13 +10748,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J81" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K81" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L81" s="9">
         <v>30</v>
@@ -10769,13 +10772,13 @@
     </row>
     <row r="82" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" s="90">
         <v>1</v>
@@ -10793,13 +10796,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J82" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K82" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L82" s="7">
         <v>5</v>
@@ -10817,13 +10820,13 @@
     </row>
     <row r="83" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" s="89">
         <v>1</v>
@@ -10841,13 +10844,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J83" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K83" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L83" s="9">
         <v>10</v>
@@ -10865,13 +10868,13 @@
     </row>
     <row r="84" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" s="89">
         <v>1</v>
@@ -10889,13 +10892,13 @@
         <v>0</v>
       </c>
       <c r="I84" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J84" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K84" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L84" s="9">
         <v>21</v>
@@ -10913,13 +10916,13 @@
     </row>
     <row r="85" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D85" s="89">
         <v>1</v>
@@ -10937,13 +10940,13 @@
         <v>0</v>
       </c>
       <c r="I85" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J85" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K85" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L85" s="53">
         <f>10*30/7</f>
@@ -10962,13 +10965,13 @@
     </row>
     <row r="86" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D86" s="90">
         <v>1</v>
@@ -10986,13 +10989,13 @@
         <v>0</v>
       </c>
       <c r="I86" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J86" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K86" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L86" s="7">
         <v>5</v>
@@ -11010,13 +11013,13 @@
     </row>
     <row r="87" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" s="89">
         <v>1</v>
@@ -11034,13 +11037,13 @@
         <v>0</v>
       </c>
       <c r="I87" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J87" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K87" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L87" s="9">
         <v>17</v>
@@ -11058,13 +11061,13 @@
     </row>
     <row r="88" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="89">
         <v>1</v>
@@ -11082,13 +11085,13 @@
         <v>0</v>
       </c>
       <c r="I88" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J88" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K88" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L88" s="9">
         <v>37</v>
@@ -11106,13 +11109,13 @@
     </row>
     <row r="89" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="89">
         <v>1</v>
@@ -11130,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J89" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K89" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L89" s="53">
         <f>18*30/7</f>
@@ -11155,13 +11158,13 @@
     </row>
     <row r="90" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" s="90">
         <v>1</v>
@@ -11179,13 +11182,13 @@
         <v>1</v>
       </c>
       <c r="I90" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J90" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K90" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L90" s="7">
         <v>1</v>
@@ -11203,13 +11206,13 @@
     </row>
     <row r="91" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" s="89">
         <v>1</v>
@@ -11227,13 +11230,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J91" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K91" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L91" s="9">
         <v>4</v>
@@ -11249,13 +11252,13 @@
     </row>
     <row r="92" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" s="89">
         <v>1</v>
@@ -11273,13 +11276,13 @@
         <v>0</v>
       </c>
       <c r="I92" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J92" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K92" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L92" s="9">
         <v>8</v>
@@ -11295,13 +11298,13 @@
     </row>
     <row r="93" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" s="89">
         <v>1</v>
@@ -11319,13 +11322,13 @@
         <v>0</v>
       </c>
       <c r="I93" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J93" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K93" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L93" s="9">
         <v>12</v>
@@ -11341,13 +11344,13 @@
     </row>
     <row r="94" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" s="90">
         <v>1</v>
@@ -11365,13 +11368,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J94" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K94" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L94" s="7">
         <v>3</v>
@@ -11389,13 +11392,13 @@
     </row>
     <row r="95" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" s="89">
         <v>1</v>
@@ -11413,13 +11416,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J95" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K95" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L95" s="9">
         <v>20</v>
@@ -11437,13 +11440,13 @@
     </row>
     <row r="96" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="89">
         <v>1</v>
@@ -11461,13 +11464,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J96" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K96" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L96" s="9">
         <v>60</v>
@@ -11485,13 +11488,13 @@
     </row>
     <row r="97" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D97" s="89">
         <v>1</v>
@@ -11509,13 +11512,13 @@
         <v>0</v>
       </c>
       <c r="I97" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J97" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K97" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L97" s="53">
         <f>24*30/7</f>
@@ -11534,13 +11537,13 @@
     </row>
     <row r="98" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D98" s="90">
         <v>1</v>
@@ -11558,13 +11561,13 @@
         <v>1</v>
       </c>
       <c r="I98" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J98" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K98" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L98" s="7">
         <v>5</v>
@@ -11580,13 +11583,13 @@
     </row>
     <row r="99" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D99" s="89">
         <v>1</v>
@@ -11604,13 +11607,13 @@
         <v>0</v>
       </c>
       <c r="I99" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J99" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K99" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L99" s="9">
         <v>17</v>
@@ -11626,13 +11629,13 @@
     </row>
     <row r="100" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" s="89">
         <v>1</v>
@@ -11650,13 +11653,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J100" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K100" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L100" s="9">
         <v>37</v>
@@ -11672,13 +11675,13 @@
     </row>
     <row r="101" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D101" s="89">
         <v>1</v>
@@ -11696,13 +11699,13 @@
         <v>0</v>
       </c>
       <c r="I101" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J101" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K101" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L101" s="53">
         <f>18*30/7</f>
@@ -11719,13 +11722,13 @@
     </row>
     <row r="102" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D102" s="90">
         <v>1</v>
@@ -11743,13 +11746,13 @@
         <v>1</v>
       </c>
       <c r="I102" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J102" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K102" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L102" s="117">
         <v>5</v>
@@ -11765,13 +11768,13 @@
     </row>
     <row r="103" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D103" s="89">
         <v>1</v>
@@ -11789,13 +11792,13 @@
         <v>1</v>
       </c>
       <c r="I103" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J103" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K103" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L103" s="118">
         <v>17</v>
@@ -11811,13 +11814,13 @@
     </row>
     <row r="104" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D104" s="89">
         <v>1</v>
@@ -11835,13 +11838,13 @@
         <v>0</v>
       </c>
       <c r="I104" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J104" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K104" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L104" s="118">
         <v>37</v>
@@ -11857,13 +11860,13 @@
     </row>
     <row r="105" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D105" s="91">
         <v>1</v>
@@ -11881,13 +11884,13 @@
         <v>0</v>
       </c>
       <c r="I105" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J105" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K105" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L105" s="120">
         <f>18*30/7</f>
@@ -11904,13 +11907,13 @@
     </row>
     <row r="106" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D106" s="90">
         <v>1</v>
@@ -11928,13 +11931,13 @@
         <v>1</v>
       </c>
       <c r="I106" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J106" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K106" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L106" s="7">
         <v>5</v>
@@ -11950,13 +11953,13 @@
     </row>
     <row r="107" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D107" s="89">
         <v>1</v>
@@ -11974,13 +11977,13 @@
         <v>0</v>
       </c>
       <c r="I107" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J107" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K107" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L107" s="9">
         <v>17</v>
@@ -11996,13 +11999,13 @@
     </row>
     <row r="108" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D108" s="89">
         <v>1</v>
@@ -12020,13 +12023,13 @@
         <v>0</v>
       </c>
       <c r="I108" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J108" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K108" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L108" s="9">
         <v>37</v>
@@ -12042,13 +12045,13 @@
     </row>
     <row r="109" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D109" s="89">
         <v>1</v>
@@ -12066,13 +12069,13 @@
         <v>0</v>
       </c>
       <c r="I109" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J109" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K109" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L109" s="53">
         <f>18*30/7</f>
@@ -12089,13 +12092,13 @@
     </row>
     <row r="110" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D110" s="90">
         <v>1</v>
@@ -12113,13 +12116,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J110" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K110" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L110" s="7">
         <v>5</v>
@@ -12137,13 +12140,13 @@
     </row>
     <row r="111" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="89">
         <v>1</v>
@@ -12161,13 +12164,13 @@
         <v>0</v>
       </c>
       <c r="I111" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J111" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K111" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L111" s="9">
         <v>17</v>
@@ -12185,13 +12188,13 @@
     </row>
     <row r="112" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="89">
         <v>1</v>
@@ -12209,13 +12212,13 @@
         <v>0</v>
       </c>
       <c r="I112" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J112" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K112" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L112" s="9">
         <v>37</v>
@@ -12233,13 +12236,13 @@
     </row>
     <row r="113" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D113" s="89">
         <v>1</v>
@@ -12257,13 +12260,13 @@
         <v>0</v>
       </c>
       <c r="I113" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J113" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K113" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L113" s="53">
         <f>18*30/7</f>
@@ -12288,7 +12291,7 @@
         <v>59</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D114" s="90">
         <v>1</v>
@@ -12306,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="I114" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J114" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K114" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L114" s="7">
         <v>5</v>
@@ -12336,7 +12339,7 @@
         <v>60</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D115" s="89">
         <v>1</v>
@@ -12354,13 +12357,13 @@
         <v>0</v>
       </c>
       <c r="I115" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J115" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K115" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L115" s="9">
         <v>17</v>
@@ -12384,7 +12387,7 @@
         <v>61</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D116" s="89">
         <v>1</v>
@@ -12402,13 +12405,13 @@
         <v>0</v>
       </c>
       <c r="I116" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J116" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K116" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L116" s="9">
         <v>37</v>
@@ -12432,7 +12435,7 @@
         <v>62</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D117" s="89">
         <v>1</v>
@@ -12450,13 +12453,13 @@
         <v>0</v>
       </c>
       <c r="I117" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J117" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K117" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L117" s="53">
         <f>18*30/7</f>
@@ -12475,13 +12478,13 @@
     </row>
     <row r="118" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D118" s="90">
         <v>1</v>
@@ -12499,13 +12502,13 @@
         <v>1</v>
       </c>
       <c r="I118" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J118" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K118" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L118" s="7">
         <v>5</v>
@@ -12521,13 +12524,13 @@
     </row>
     <row r="119" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D119" s="89">
         <v>1</v>
@@ -12545,13 +12548,13 @@
         <v>1</v>
       </c>
       <c r="I119" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J119" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K119" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L119" s="9">
         <v>17</v>
@@ -12567,13 +12570,13 @@
     </row>
     <row r="120" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D120" s="89">
         <v>1</v>
@@ -12591,13 +12594,13 @@
         <v>0</v>
       </c>
       <c r="I120" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J120" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K120" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L120" s="9">
         <v>37</v>
@@ -12613,13 +12616,13 @@
     </row>
     <row r="121" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D121" s="91">
         <v>1</v>
@@ -12637,13 +12640,13 @@
         <v>0</v>
       </c>
       <c r="I121" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J121" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K121" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L121" s="13">
         <f>18*30/7</f>
@@ -12660,13 +12663,13 @@
     </row>
     <row r="122" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D122" s="89">
         <v>1</v>
@@ -12684,13 +12687,13 @@
         <v>0</v>
       </c>
       <c r="I122" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J122" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K122" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L122" s="9">
         <v>5</v>
@@ -12706,13 +12709,13 @@
     </row>
     <row r="123" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="89">
         <v>1</v>
@@ -12730,13 +12733,13 @@
         <v>0</v>
       </c>
       <c r="I123" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J123" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K123" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L123" s="9">
         <v>20</v>
@@ -12752,13 +12755,13 @@
     </row>
     <row r="124" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D124" s="89">
         <v>1</v>
@@ -12776,13 +12779,13 @@
         <v>0</v>
       </c>
       <c r="I124" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J124" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K124" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L124" s="9">
         <v>50</v>
@@ -12798,13 +12801,13 @@
     </row>
     <row r="125" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D125" s="89">
         <v>1</v>
@@ -12822,13 +12825,13 @@
         <v>0</v>
       </c>
       <c r="I125" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J125" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K125" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L125" s="53">
         <f>24*30/7</f>
@@ -12845,13 +12848,13 @@
     </row>
     <row r="126" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D126" s="90">
         <v>1</v>
@@ -12869,13 +12872,13 @@
         <v>1</v>
       </c>
       <c r="I126" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J126" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K126" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L126" s="7">
         <v>5</v>
@@ -12893,13 +12896,13 @@
     </row>
     <row r="127" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D127" s="89">
         <v>1</v>
@@ -12917,13 +12920,13 @@
         <v>0.6</v>
       </c>
       <c r="I127" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J127" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K127" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L127" s="9">
         <v>17</v>
@@ -12941,13 +12944,13 @@
     </row>
     <row r="128" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="89">
         <v>1</v>
@@ -12965,13 +12968,13 @@
         <v>0.2</v>
       </c>
       <c r="I128" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J128" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K128" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L128" s="9">
         <v>37</v>
@@ -12989,13 +12992,13 @@
     </row>
     <row r="129" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129" s="91">
         <v>1</v>
@@ -13013,13 +13016,13 @@
         <v>0</v>
       </c>
       <c r="I129" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J129" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K129" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L129" s="13">
         <f>18*30/7</f>
@@ -13044,7 +13047,7 @@
         <v>59</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" s="90">
         <v>1</v>
@@ -13062,13 +13065,13 @@
         <v>1</v>
       </c>
       <c r="I130" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J130" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K130" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L130" s="119">
         <v>0.2</v>
@@ -13092,7 +13095,7 @@
         <v>60</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" s="89">
         <v>1</v>
@@ -13110,13 +13113,13 @@
         <v>0</v>
       </c>
       <c r="I131" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J131" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K131" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L131" s="119">
         <v>0.5</v>
@@ -13140,7 +13143,7 @@
         <v>61</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D132" s="89">
         <v>1</v>
@@ -13158,13 +13161,13 @@
         <v>0</v>
       </c>
       <c r="I132" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J132" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K132" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L132" s="119">
         <v>1</v>
@@ -13188,7 +13191,7 @@
         <v>62</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D133" s="89">
         <v>1</v>
@@ -13206,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="I133" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J133" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K133" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L133" s="119">
         <v>4.3</v>
@@ -13236,7 +13239,7 @@
         <v>59</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D134" s="90">
         <v>1</v>
@@ -13254,13 +13257,13 @@
         <v>1</v>
       </c>
       <c r="I134" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J134" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K134" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L134" s="7">
         <v>3</v>
@@ -13282,7 +13285,7 @@
         <v>60</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D135" s="89">
         <v>1</v>
@@ -13300,13 +13303,13 @@
         <v>0</v>
       </c>
       <c r="I135" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J135" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K135" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L135" s="9">
         <v>20</v>
@@ -13328,7 +13331,7 @@
         <v>61</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D136" s="89">
         <v>1</v>
@@ -13346,13 +13349,13 @@
         <v>0</v>
       </c>
       <c r="I136" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J136" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K136" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L136" s="9">
         <v>60</v>
@@ -13374,7 +13377,7 @@
         <v>62</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D137" s="91">
         <v>1</v>
@@ -13392,13 +13395,13 @@
         <v>0</v>
       </c>
       <c r="I137" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J137" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K137" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L137" s="13">
         <f>24*30/7</f>
@@ -13421,7 +13424,7 @@
         <v>59</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" s="89">
         <v>1</v>
@@ -13439,13 +13442,13 @@
         <v>1</v>
       </c>
       <c r="I138" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J138" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K138" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L138" s="119">
         <v>0.2</v>
@@ -13467,7 +13470,7 @@
         <v>60</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="89">
         <v>1</v>
@@ -13485,13 +13488,13 @@
         <v>1</v>
       </c>
       <c r="I139" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J139" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K139" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L139" s="119">
         <v>0.5</v>
@@ -13513,7 +13516,7 @@
         <v>61</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D140" s="89">
         <v>1</v>
@@ -13531,13 +13534,13 @@
         <v>0</v>
       </c>
       <c r="I140" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J140" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K140" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L140" s="119">
         <v>1</v>
@@ -13559,7 +13562,7 @@
         <v>62</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="89">
         <v>1</v>
@@ -13577,13 +13580,13 @@
         <v>0</v>
       </c>
       <c r="I141" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J141" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K141" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L141" s="119">
         <v>4.3</v>
@@ -13605,7 +13608,7 @@
         <v>59</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" s="90">
         <v>1</v>
@@ -13623,13 +13626,13 @@
         <v>1</v>
       </c>
       <c r="I142" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J142" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K142" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L142" s="7">
         <v>1</v>
@@ -13653,7 +13656,7 @@
         <v>60</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" s="89">
         <v>1</v>
@@ -13671,13 +13674,13 @@
         <v>0</v>
       </c>
       <c r="I143" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J143" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K143" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L143" s="9">
         <v>3</v>
@@ -13701,7 +13704,7 @@
         <v>61</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D144" s="89">
         <v>1</v>
@@ -13719,13 +13722,13 @@
         <v>0</v>
       </c>
       <c r="I144" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J144" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K144" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L144" s="9">
         <v>15</v>
@@ -13749,7 +13752,7 @@
         <v>62</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D145" s="89">
         <v>1</v>
@@ -13767,13 +13770,13 @@
         <v>0</v>
       </c>
       <c r="I145" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J145" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K145" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L145" s="9">
         <v>30</v>
@@ -13797,7 +13800,7 @@
         <v>59</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D146" s="90">
         <v>1</v>
@@ -13815,13 +13818,13 @@
         <v>1</v>
       </c>
       <c r="I146" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J146" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K146" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L146" s="7">
         <v>5</v>
@@ -13845,7 +13848,7 @@
         <v>60</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D147" s="89">
         <v>1</v>
@@ -13863,13 +13866,13 @@
         <v>0</v>
       </c>
       <c r="I147" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J147" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K147" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L147" s="9">
         <v>10</v>
@@ -13893,7 +13896,7 @@
         <v>61</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D148" s="89">
         <v>1</v>
@@ -13911,13 +13914,13 @@
         <v>0</v>
       </c>
       <c r="I148" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J148" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K148" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L148" s="9">
         <v>21</v>
@@ -13941,7 +13944,7 @@
         <v>62</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D149" s="89">
         <v>1</v>
@@ -13959,13 +13962,13 @@
         <v>0</v>
       </c>
       <c r="I149" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J149" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K149" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L149" s="53">
         <f>10*30/7</f>
@@ -13990,7 +13993,7 @@
         <v>59</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D150" s="90">
         <v>1</v>
@@ -14008,13 +14011,13 @@
         <v>0</v>
       </c>
       <c r="I150" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J150" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K150" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L150" s="7">
         <v>5</v>
@@ -14038,7 +14041,7 @@
         <v>60</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D151" s="89">
         <v>1</v>
@@ -14056,13 +14059,13 @@
         <v>0</v>
       </c>
       <c r="I151" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J151" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K151" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L151" s="9">
         <v>17</v>
@@ -14086,7 +14089,7 @@
         <v>61</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D152" s="89">
         <v>1</v>
@@ -14104,13 +14107,13 @@
         <v>0</v>
       </c>
       <c r="I152" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J152" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K152" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L152" s="9">
         <v>37</v>
@@ -14134,7 +14137,7 @@
         <v>62</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D153" s="89">
         <v>1</v>
@@ -14152,13 +14155,13 @@
         <v>0</v>
       </c>
       <c r="I153" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J153" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K153" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L153" s="53">
         <f>18*30/7</f>
@@ -14177,13 +14180,13 @@
     </row>
     <row r="154" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D154" s="90">
         <v>1</v>
@@ -14201,13 +14204,13 @@
         <v>1</v>
       </c>
       <c r="I154" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J154" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K154" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L154" s="7">
         <v>1</v>
@@ -14225,13 +14228,13 @@
     </row>
     <row r="155" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D155" s="89">
         <v>1</v>
@@ -14249,13 +14252,13 @@
         <v>0</v>
       </c>
       <c r="I155" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J155" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K155" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L155" s="9">
         <v>4</v>
@@ -14271,13 +14274,13 @@
     </row>
     <row r="156" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D156" s="89">
         <v>1</v>
@@ -14295,13 +14298,13 @@
         <v>0</v>
       </c>
       <c r="I156" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J156" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K156" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L156" s="9">
         <v>8</v>
@@ -14317,13 +14320,13 @@
     </row>
     <row r="157" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" s="89">
         <v>1</v>
@@ -14341,13 +14344,13 @@
         <v>0</v>
       </c>
       <c r="I157" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J157" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K157" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L157" s="9">
         <v>12</v>
@@ -14369,7 +14372,7 @@
         <v>59</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="90">
         <v>1</v>
@@ -14387,13 +14390,13 @@
         <v>0</v>
       </c>
       <c r="I158" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J158" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K158" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L158" s="7">
         <v>3</v>
@@ -14417,7 +14420,7 @@
         <v>60</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D159" s="89">
         <v>1</v>
@@ -14435,13 +14438,13 @@
         <v>0</v>
       </c>
       <c r="I159" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J159" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K159" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L159" s="9">
         <v>20</v>
@@ -14465,7 +14468,7 @@
         <v>61</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D160" s="89">
         <v>1</v>
@@ -14483,13 +14486,13 @@
         <v>0</v>
       </c>
       <c r="I160" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J160" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K160" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L160" s="9">
         <v>60</v>
@@ -14513,7 +14516,7 @@
         <v>62</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D161" s="89">
         <v>1</v>
@@ -14531,13 +14534,13 @@
         <v>0</v>
       </c>
       <c r="I161" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J161" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K161" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L161" s="53">
         <f>24*30/7</f>
@@ -14562,7 +14565,7 @@
         <v>59</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D162" s="90">
         <v>1</v>
@@ -14580,13 +14583,13 @@
         <v>1</v>
       </c>
       <c r="I162" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J162" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K162" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L162" s="7">
         <v>5</v>
@@ -14608,7 +14611,7 @@
         <v>60</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D163" s="89">
         <v>1</v>
@@ -14626,13 +14629,13 @@
         <v>0</v>
       </c>
       <c r="I163" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J163" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K163" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L163" s="9">
         <v>17</v>
@@ -14654,7 +14657,7 @@
         <v>61</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D164" s="89">
         <v>1</v>
@@ -14672,13 +14675,13 @@
         <v>0</v>
       </c>
       <c r="I164" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J164" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K164" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L164" s="9">
         <v>37</v>
@@ -14700,7 +14703,7 @@
         <v>62</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D165" s="89">
         <v>1</v>
@@ -14718,13 +14721,13 @@
         <v>0</v>
       </c>
       <c r="I165" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J165" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K165" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L165" s="53">
         <f>18*30/7</f>
@@ -14747,7 +14750,7 @@
         <v>59</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="90">
         <v>1</v>
@@ -14765,13 +14768,13 @@
         <v>1</v>
       </c>
       <c r="I166" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J166" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K166" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L166" s="117">
         <v>5</v>
@@ -14793,7 +14796,7 @@
         <v>60</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D167" s="89">
         <v>1</v>
@@ -14811,13 +14814,13 @@
         <v>1</v>
       </c>
       <c r="I167" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J167" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K167" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L167" s="118">
         <v>17</v>
@@ -14839,7 +14842,7 @@
         <v>61</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D168" s="89">
         <v>1</v>
@@ -14857,13 +14860,13 @@
         <v>0</v>
       </c>
       <c r="I168" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J168" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K168" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L168" s="118">
         <v>37</v>
@@ -14885,7 +14888,7 @@
         <v>62</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D169" s="91">
         <v>1</v>
@@ -14903,13 +14906,13 @@
         <v>0</v>
       </c>
       <c r="I169" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J169" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K169" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L169" s="120">
         <f>18*30/7</f>
@@ -14932,7 +14935,7 @@
         <v>59</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D170" s="89">
         <v>1</v>
@@ -14950,13 +14953,13 @@
         <v>1</v>
       </c>
       <c r="I170" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J170" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K170" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L170" s="9">
         <v>5</v>
@@ -14978,7 +14981,7 @@
         <v>60</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D171" s="89">
         <v>1</v>
@@ -14996,13 +14999,13 @@
         <v>0</v>
       </c>
       <c r="I171" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J171" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K171" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L171" s="9">
         <v>17</v>
@@ -15024,7 +15027,7 @@
         <v>61</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D172" s="89">
         <v>1</v>
@@ -15042,13 +15045,13 @@
         <v>0</v>
       </c>
       <c r="I172" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J172" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K172" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L172" s="9">
         <v>37</v>
@@ -15070,7 +15073,7 @@
         <v>62</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D173" s="89">
         <v>1</v>
@@ -15088,13 +15091,13 @@
         <v>0</v>
       </c>
       <c r="I173" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J173" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K173" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L173" s="53">
         <f>18*30/7</f>
@@ -15117,7 +15120,7 @@
         <v>59</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D174" s="90">
         <v>1</v>
@@ -15135,13 +15138,13 @@
         <v>1</v>
       </c>
       <c r="I174" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J174" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K174" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L174" s="7">
         <v>5</v>
@@ -15165,7 +15168,7 @@
         <v>60</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D175" s="89">
         <v>1</v>
@@ -15183,13 +15186,13 @@
         <v>0</v>
       </c>
       <c r="I175" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J175" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K175" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L175" s="9">
         <v>17</v>
@@ -15213,7 +15216,7 @@
         <v>61</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D176" s="89">
         <v>1</v>
@@ -15231,13 +15234,13 @@
         <v>0</v>
       </c>
       <c r="I176" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J176" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K176" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L176" s="9">
         <v>37</v>
@@ -15261,7 +15264,7 @@
         <v>62</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D177" s="89">
         <v>1</v>
@@ -15279,13 +15282,13 @@
         <v>0</v>
       </c>
       <c r="I177" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J177" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K177" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L177" s="53">
         <f>18*30/7</f>
@@ -15310,7 +15313,7 @@
         <v>59</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D178" s="90">
         <v>1</v>
@@ -15328,13 +15331,13 @@
         <v>0</v>
       </c>
       <c r="I178" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J178" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K178" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L178" s="7">
         <v>5</v>
@@ -15358,7 +15361,7 @@
         <v>60</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D179" s="89">
         <v>1</v>
@@ -15376,13 +15379,13 @@
         <v>0</v>
       </c>
       <c r="I179" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J179" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K179" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L179" s="9">
         <v>17</v>
@@ -15406,7 +15409,7 @@
         <v>61</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D180" s="89">
         <v>1</v>
@@ -15424,13 +15427,13 @@
         <v>0</v>
       </c>
       <c r="I180" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J180" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K180" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L180" s="9">
         <v>37</v>
@@ -15454,7 +15457,7 @@
         <v>62</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D181" s="91">
         <v>1</v>
@@ -15472,13 +15475,13 @@
         <v>0</v>
       </c>
       <c r="I181" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J181" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K181" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L181" s="13">
         <f>18*30/7</f>
@@ -15503,7 +15506,7 @@
         <v>59</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D182" s="89">
         <v>1</v>
@@ -15521,13 +15524,13 @@
         <v>1</v>
       </c>
       <c r="I182" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J182" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K182" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L182" s="9">
         <v>5</v>
@@ -15549,7 +15552,7 @@
         <v>60</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D183" s="89">
         <v>1</v>
@@ -15567,13 +15570,13 @@
         <v>1</v>
       </c>
       <c r="I183" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J183" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K183" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L183" s="9">
         <v>17</v>
@@ -15595,7 +15598,7 @@
         <v>61</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D184" s="89">
         <v>1</v>
@@ -15613,13 +15616,13 @@
         <v>0</v>
       </c>
       <c r="I184" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J184" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K184" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L184" s="9">
         <v>37</v>
@@ -15641,7 +15644,7 @@
         <v>62</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D185" s="89">
         <v>1</v>
@@ -15659,13 +15662,13 @@
         <v>0</v>
       </c>
       <c r="I185" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J185" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K185" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L185" s="53">
         <f>18*30/7</f>
@@ -15688,7 +15691,7 @@
         <v>59</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D186" s="90">
         <v>1</v>
@@ -15706,13 +15709,13 @@
         <v>0</v>
       </c>
       <c r="I186" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J186" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K186" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L186" s="7">
         <v>5</v>
@@ -15734,7 +15737,7 @@
         <v>60</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D187" s="89">
         <v>1</v>
@@ -15752,13 +15755,13 @@
         <v>0</v>
       </c>
       <c r="I187" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J187" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K187" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L187" s="9">
         <v>20</v>
@@ -15780,7 +15783,7 @@
         <v>61</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D188" s="89">
         <v>1</v>
@@ -15798,13 +15801,13 @@
         <v>0</v>
       </c>
       <c r="I188" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J188" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K188" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L188" s="9">
         <v>50</v>
@@ -15826,7 +15829,7 @@
         <v>62</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D189" s="89">
         <v>1</v>
@@ -15844,13 +15847,13 @@
         <v>0</v>
       </c>
       <c r="I189" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J189" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K189" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L189" s="53">
         <f>24*30/7</f>
@@ -15873,7 +15876,7 @@
         <v>59</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" s="90">
         <v>1</v>
@@ -15891,13 +15894,13 @@
         <v>1</v>
       </c>
       <c r="I190" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J190" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K190" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L190" s="7">
         <v>5</v>
@@ -15921,7 +15924,7 @@
         <v>60</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D191" s="89">
         <v>1</v>
@@ -15939,13 +15942,13 @@
         <v>0.6</v>
       </c>
       <c r="I191" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J191" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K191" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L191" s="9">
         <v>17</v>
@@ -15969,7 +15972,7 @@
         <v>61</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D192" s="89">
         <v>1</v>
@@ -15987,13 +15990,13 @@
         <v>0.2</v>
       </c>
       <c r="I192" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J192" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K192" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L192" s="9">
         <v>37</v>
@@ -16017,7 +16020,7 @@
         <v>62</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D193" s="89">
         <v>1</v>
@@ -16035,13 +16038,13 @@
         <v>0</v>
       </c>
       <c r="I193" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J193" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K193" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L193" s="53">
         <f>18*30/7</f>
@@ -16066,7 +16069,7 @@
         <v>59</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D194" s="90">
         <v>1</v>
@@ -16084,13 +16087,13 @@
         <v>1</v>
       </c>
       <c r="I194" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J194" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K194" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L194" s="7">
         <v>1</v>
@@ -16114,7 +16117,7 @@
         <v>60</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D195" s="89">
         <v>1</v>
@@ -16132,13 +16135,13 @@
         <v>0.6</v>
       </c>
       <c r="I195" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J195" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K195" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L195" s="9">
         <v>3</v>
@@ -16162,7 +16165,7 @@
         <v>61</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D196" s="89">
         <v>1</v>
@@ -16180,13 +16183,13 @@
         <v>0.2</v>
       </c>
       <c r="I196" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J196" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K196" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L196" s="9">
         <v>7</v>
@@ -16210,7 +16213,7 @@
         <v>62</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D197" s="89">
         <v>1</v>
@@ -16228,13 +16231,13 @@
         <v>0</v>
       </c>
       <c r="I197" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J197" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K197" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L197" s="9">
         <v>30</v>
@@ -16258,7 +16261,7 @@
         <v>59</v>
       </c>
       <c r="C198" s="99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D198" s="100">
         <v>1</v>
@@ -16276,13 +16279,13 @@
         <v>1</v>
       </c>
       <c r="I198" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J198" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K198" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L198" s="103">
         <v>1</v>
@@ -16304,7 +16307,7 @@
         <v>60</v>
       </c>
       <c r="C199" s="104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D199" s="105">
         <v>1</v>
@@ -16322,13 +16325,13 @@
         <v>1</v>
       </c>
       <c r="I199" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J199" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K199" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L199" s="108">
         <v>1</v>
@@ -16350,7 +16353,7 @@
         <v>61</v>
       </c>
       <c r="C200" s="104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D200" s="105">
         <v>1</v>
@@ -16368,13 +16371,13 @@
         <v>1</v>
       </c>
       <c r="I200" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J200" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K200" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L200" s="108">
         <v>1</v>
@@ -16396,7 +16399,7 @@
         <v>62</v>
       </c>
       <c r="C201" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D201" s="110">
         <v>1</v>
@@ -16414,13 +16417,13 @@
         <v>1</v>
       </c>
       <c r="I201" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J201" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K201" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L201" s="113">
         <v>1</v>
@@ -16436,13 +16439,13 @@
     </row>
     <row r="202" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202" s="99" t="s">
         <v>59</v>
       </c>
       <c r="C202" s="99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D202" s="100">
         <v>1</v>
@@ -16460,13 +16463,13 @@
         <v>1</v>
       </c>
       <c r="I202" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J202" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K202" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L202" s="103">
         <v>1</v>
@@ -16482,13 +16485,13 @@
     </row>
     <row r="203" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B203" s="104" t="s">
         <v>60</v>
       </c>
       <c r="C203" s="104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D203" s="105">
         <v>1</v>
@@ -16506,13 +16509,13 @@
         <v>1</v>
       </c>
       <c r="I203" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J203" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K203" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L203" s="108">
         <v>1</v>
@@ -16528,13 +16531,13 @@
     </row>
     <row r="204" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B204" s="104" t="s">
         <v>61</v>
       </c>
       <c r="C204" s="104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D204" s="105">
         <v>1</v>
@@ -16552,13 +16555,13 @@
         <v>1</v>
       </c>
       <c r="I204" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J204" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K204" s="107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L204" s="108">
         <v>1</v>
@@ -16574,13 +16577,13 @@
     </row>
     <row r="205" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B205" s="109" t="s">
         <v>62</v>
       </c>
       <c r="C205" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D205" s="110">
         <v>1</v>
@@ -16598,13 +16601,13 @@
         <v>1</v>
       </c>
       <c r="I205" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J205" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K205" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L205" s="113">
         <v>1</v>
@@ -16659,7 +16662,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -16928,7 +16931,7 @@
     </row>
     <row r="26" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>59</v>
@@ -16939,7 +16942,7 @@
     </row>
     <row r="27" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>60</v>
@@ -16950,7 +16953,7 @@
     </row>
     <row r="28" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>61</v>
@@ -16961,7 +16964,7 @@
     </row>
     <row r="29" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>62</v>
@@ -17632,7 +17635,7 @@
     </row>
     <row r="90" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>59</v>
@@ -17643,7 +17646,7 @@
     </row>
     <row r="91" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>60</v>
@@ -17654,7 +17657,7 @@
     </row>
     <row r="92" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>61</v>
@@ -17665,7 +17668,7 @@
     </row>
     <row r="93" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>62</v>
@@ -18336,7 +18339,7 @@
     </row>
     <row r="154" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>59</v>
@@ -18347,7 +18350,7 @@
     </row>
     <row r="155" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>60</v>
@@ -18358,7 +18361,7 @@
     </row>
     <row r="156" spans="1:3" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>61</v>
@@ -18369,7 +18372,7 @@
     </row>
     <row r="157" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>62</v>
@@ -18782,7 +18785,7 @@
         <v>59</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18793,7 +18796,7 @@
         <v>60</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18804,7 +18807,7 @@
         <v>61</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18815,7 +18818,7 @@
         <v>62</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18826,7 +18829,7 @@
         <v>59</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18837,7 +18840,7 @@
         <v>60</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18848,7 +18851,7 @@
         <v>61</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18859,51 +18862,51 @@
         <v>62</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202" s="99" t="s">
         <v>59</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B203" s="104" t="s">
         <v>60</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B204" s="104" t="s">
         <v>61</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B205" s="109" t="s">
         <v>62</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -19132,7 +19135,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -19498,7 +19501,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19871,7 +19874,7 @@
         <v>163</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21275,7 +21278,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -21307,7 +21310,7 @@
         <v>73</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -21339,7 +21342,7 @@
         <v>74</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -21372,7 +21375,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21404,7 +21407,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -21776,7 +21779,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22149,7 +22152,7 @@
         <v>163</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
